--- a/summer_2019_edited_csv/Copy of Anderson 5.xlsx
+++ b/summer_2019_edited_csv/Copy of Anderson 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEDA88-F10E-4C8E-8B2E-A322FE28B730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694605F3-06DE-4983-B873-28A6B911CCDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>prey stage</t>
   </si>
   <si>
-    <t>Coregonus_artedi_10_na_in_26_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl7</t>
-  </si>
-  <si>
-    <t>Coregonus_artedi_10_na_in_1_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl7</t>
-  </si>
-  <si>
-    <t>Coregonus_artedi_10_na_in_4_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl7</t>
+    <t>Coregonus_artedi_10_na_in_26_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl7</t>
+  </si>
+  <si>
+    <t>Coregonus_artedi_10_na_in_4_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl7</t>
+  </si>
+  <si>
+    <t>Coregonus_artedi_10_na_in_1_1965_Sep_na_1958_Dec_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl7</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,10 +400,10 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
